--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -617,6 +617,10 @@
   </si>
   <si>
     <t>Practitioner.telecom.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3590,13 +3594,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3647,7 +3651,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3665,7 +3669,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3676,7 +3680,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3705,7 +3709,7 @@
         <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>135</v>
@@ -3746,19 +3750,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3776,7 +3780,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3787,7 +3791,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3813,10 +3817,10 @@
         <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3843,13 +3847,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3867,7 +3871,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3876,19 +3880,19 @@
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3896,7 +3900,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3919,19 +3923,19 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3980,7 +3984,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3995,13 +3999,13 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -4009,7 +4013,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4035,16 +4039,16 @@
         <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -4069,13 +4073,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -4093,7 +4097,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4108,13 +4112,13 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -4122,7 +4126,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4145,16 +4149,16 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4204,7 +4208,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4219,10 +4223,10 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4233,7 +4237,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4256,16 +4260,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4315,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4333,10 +4337,10 @@
         <v>129</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4344,7 +4348,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4367,19 +4371,19 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4428,7 +4432,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4443,13 +4447,13 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4457,7 +4461,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4480,13 +4484,13 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4537,7 +4541,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4555,7 +4559,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4566,7 +4570,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4595,7 +4599,7 @@
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>135</v>
@@ -4636,19 +4640,19 @@
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4666,7 +4670,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4677,7 +4681,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4703,16 +4707,16 @@
         <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4725,7 +4729,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>76</v>
@@ -4737,13 +4741,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4761,7 +4765,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4776,13 +4780,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4790,7 +4794,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4816,13 +4820,13 @@
         <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4836,7 +4840,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4848,13 +4852,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4872,7 +4876,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4887,10 +4891,10 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4901,7 +4905,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4924,19 +4928,19 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4949,7 +4953,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4985,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5000,10 +5004,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -5014,7 +5018,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5037,13 +5041,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5058,7 +5062,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5094,7 +5098,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5109,13 +5113,13 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5123,11 +5127,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5146,13 +5150,13 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5167,7 +5171,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -5203,7 +5207,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5218,13 +5222,13 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5232,11 +5236,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5255,16 +5259,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5278,7 +5282,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5314,7 +5318,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5329,10 +5333,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5343,11 +5347,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5366,13 +5370,13 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5423,7 +5427,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5438,13 +5442,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5452,11 +5456,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5475,13 +5479,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5496,7 +5500,7 @@
         <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>76</v>
@@ -5532,7 +5536,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5547,13 +5551,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5561,7 +5565,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5584,16 +5588,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5643,7 +5647,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5658,13 +5662,13 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5672,7 +5676,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5695,19 +5699,19 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5720,7 +5724,7 @@
         <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>76</v>
@@ -5756,7 +5760,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5771,13 +5775,13 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5785,7 +5789,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5811,14 +5815,14 @@
         <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5843,13 +5847,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5867,7 +5871,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5882,13 +5886,13 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5896,7 +5900,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5919,17 +5923,17 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5978,7 +5982,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5993,13 +5997,13 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6007,7 +6011,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6030,19 +6034,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6091,7 +6095,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6109,10 +6113,10 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6120,7 +6124,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6143,16 +6147,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6190,17 +6194,17 @@
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6215,13 +6219,13 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6229,7 +6233,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6252,13 +6256,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6309,7 +6313,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6327,7 +6331,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6338,7 +6342,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6367,7 +6371,7 @@
         <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>135</v>
@@ -6420,7 +6424,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6438,7 +6442,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6449,11 +6453,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6475,10 +6479,10 @@
         <v>132</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>135</v>
@@ -6533,7 +6537,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6562,7 +6566,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6588,14 +6592,14 @@
         <v>144</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6644,7 +6648,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6662,7 +6666,7 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6673,7 +6677,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6696,16 +6700,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6731,13 +6735,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6755,7 +6759,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>86</v>
@@ -6773,10 +6777,10 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6784,7 +6788,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6807,19 +6811,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6868,7 +6872,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6886,10 +6890,10 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6897,7 +6901,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6920,16 +6924,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6979,7 +6983,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6997,7 +7001,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7008,10 +7012,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>76</v>
@@ -7021,7 +7025,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -7033,13 +7037,13 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7090,7 +7094,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7105,13 +7109,13 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7119,7 +7123,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7142,13 +7146,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7199,7 +7203,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7217,7 +7221,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7228,7 +7232,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7257,7 +7261,7 @@
         <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>135</v>
@@ -7310,7 +7314,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7328,7 +7332,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7339,11 +7343,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7365,10 +7369,10 @@
         <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>135</v>
@@ -7423,7 +7427,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7456,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7478,14 +7482,14 @@
         <v>144</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7534,7 +7538,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7552,7 +7556,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7563,7 +7567,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7586,13 +7590,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7643,7 +7647,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7661,7 +7665,7 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7672,7 +7676,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7701,7 +7705,7 @@
         <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>135</v>
@@ -7742,19 +7746,19 @@
         <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7772,7 +7776,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7783,7 +7787,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7809,16 +7813,16 @@
         <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7843,13 +7847,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7867,7 +7871,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7885,7 +7889,7 @@
         <v>129</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7896,7 +7900,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7919,19 +7923,19 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7956,13 +7960,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7980,7 +7984,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7995,10 +7999,10 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -8009,7 +8013,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8035,16 +8039,16 @@
         <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8057,7 +8061,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8093,7 +8097,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8108,13 +8112,13 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8122,7 +8126,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8145,16 +8149,16 @@
         <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8168,7 +8172,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8204,7 +8208,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8219,13 +8223,13 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8233,7 +8237,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8256,13 +8260,13 @@
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8313,7 +8317,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8328,13 +8332,13 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8342,7 +8346,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8365,16 +8369,16 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8424,7 +8428,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8439,13 +8443,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8453,7 +8457,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8476,13 +8480,13 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8491,7 +8495,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>76</v>
@@ -8509,11 +8513,11 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8531,7 +8535,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>86</v>
@@ -8549,10 +8553,10 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8560,7 +8564,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8583,17 +8587,17 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8642,7 +8646,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8660,10 +8664,10 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8671,7 +8675,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8694,13 +8698,13 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8751,7 +8755,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8769,7 +8773,7 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8780,10 +8784,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>76</v>
@@ -8805,13 +8809,13 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8862,7 +8866,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8877,13 +8881,13 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8891,7 +8895,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8914,13 +8918,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8971,7 +8975,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8989,7 +8993,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -9000,7 +9004,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9029,7 +9033,7 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>135</v>
@@ -9082,7 +9086,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9100,7 +9104,7 @@
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9111,11 +9115,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9137,10 +9141,10 @@
         <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>135</v>
@@ -9195,7 +9199,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9224,7 +9228,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9250,14 +9254,14 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9306,7 +9310,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9324,7 +9328,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9335,7 +9339,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9358,13 +9362,13 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9415,7 +9419,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9433,7 +9437,7 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9444,7 +9448,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9473,7 +9477,7 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>135</v>
@@ -9514,19 +9518,19 @@
         <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9544,7 +9548,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9555,7 +9559,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9581,16 +9585,16 @@
         <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9615,13 +9619,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9639,7 +9643,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9657,7 +9661,7 @@
         <v>129</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9668,7 +9672,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9691,19 +9695,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9728,13 +9732,13 @@
         <v>76</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>76</v>
@@ -9752,7 +9756,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9767,10 +9771,10 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9781,7 +9785,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9807,29 +9811,29 @@
         <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>76</v>
@@ -9865,7 +9869,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9880,13 +9884,13 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9894,7 +9898,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9917,16 +9921,16 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9940,7 +9944,7 @@
         <v>76</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>76</v>
@@ -9976,7 +9980,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9991,13 +9995,13 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10005,7 +10009,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10028,13 +10032,13 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10085,7 +10089,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10100,13 +10104,13 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10114,7 +10118,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10137,16 +10141,16 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10196,7 +10200,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10211,13 +10215,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10225,7 +10229,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10248,13 +10252,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10263,7 +10267,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>76</v>
@@ -10281,11 +10285,11 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10303,7 +10307,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>86</v>
@@ -10321,10 +10325,10 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10332,7 +10336,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10355,17 +10359,17 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10414,7 +10418,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10432,10 +10436,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10443,7 +10447,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10466,13 +10470,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10523,7 +10527,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10541,7 +10545,7 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10552,7 +10556,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10575,19 +10579,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10636,7 +10640,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10651,13 +10655,13 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-practitioner.xlsx
@@ -1210,7 +1210,7 @@
 医籍登録番号のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.31 を使用する。</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code}
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
@@ -8495,10 +8495,10 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R59" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>76</v>
@@ -10267,10 +10267,10 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R75" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>76</v>
